--- a/data_sample/ice_cores/testing-nogap_extremity-TS.xlsx
+++ b/data_sample/ice_cores/testing-nogap_extremity-TS.xlsx
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="121">
   <si>
     <t xml:space="preserve">date and time</t>
   </si>
@@ -142,6 +142,9 @@
     <t xml:space="preserve">testing-gap_extremity-TS</t>
   </si>
   <si>
+    <t xml:space="preserve">testing-gap_noextremity-TS</t>
+  </si>
+  <si>
     <t xml:space="preserve">observer</t>
   </si>
   <si>
@@ -172,16 +175,10 @@
     <t xml:space="preserve">core</t>
   </si>
   <si>
-    <t xml:space="preserve">testing-nogap_extremity</t>
-  </si>
-  <si>
     <t xml:space="preserve">core length</t>
   </si>
   <si>
     <t xml:space="preserve">notes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T2-B1</t>
   </si>
   <si>
     <t xml:space="preserve">vertical reference</t>
@@ -690,7 +687,7 @@
   <dimension ref="A1:I33"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C21" activeCellId="0" sqref="C21"/>
+      <selection pane="topLeft" activeCell="F25" activeCellId="0" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -910,15 +907,18 @@
       <c r="E22" s="1" t="s">
         <v>29</v>
       </c>
+      <c r="F22" s="1" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -926,12 +926,12 @@
     </row>
     <row r="26" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" s="2" t="s">
@@ -941,7 +941,7 @@
     </row>
     <row r="28" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A28" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B28" s="4"/>
       <c r="C28" s="1" t="s">
@@ -950,7 +950,7 @@
     </row>
     <row r="29" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>15</v>
@@ -958,21 +958,21 @@
     </row>
     <row r="30" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A30" s="3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A31" s="3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B31" s="3"/>
     </row>
     <row r="32" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A32" s="9" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B32" s="9"/>
       <c r="C32" s="9"/>
@@ -1007,8 +1007,8 @@
   </sheetPr>
   <dimension ref="A1:L18"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C3" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I18" activeCellId="0" sqref="I18"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1023,10 +1023,10 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="3" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>40</v>
+        <v>26</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1044,17 +1044,14 @@
       <c r="A3" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>43</v>
-      </c>
     </row>
     <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B4" s="3"/>
       <c r="C4" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D4" s="3"/>
       <c r="E4" s="3"/>
@@ -1068,50 +1065,50 @@
     </row>
     <row r="5" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="B5" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="B5" s="10" t="s">
+      <c r="C5" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="C5" s="10" t="s">
+      <c r="D5" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="D5" s="10" t="s">
+      <c r="E5" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="E5" s="10" t="s">
+      <c r="F5" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="F5" s="10" t="s">
+      <c r="G5" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="G5" s="10" t="s">
+      <c r="H5" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="H5" s="10" t="s">
+      <c r="I5" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="I5" s="1" t="s">
-        <v>54</v>
-      </c>
       <c r="J5" s="10" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="L5" s="10"/>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B6" s="10"/>
       <c r="D6" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E6" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="F6" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="F6" s="1" t="s">
+      <c r="G6" s="1" t="s">
         <v>57</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1125,25 +1122,25 @@
         <v>13</v>
       </c>
       <c r="D7" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E7" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="F7" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="F7" s="1" t="s">
+      <c r="G7" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="H7" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="G7" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="H7" s="1" t="s">
+      <c r="I7" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="J7" s="1" t="s">
         <v>62</v>
-      </c>
-      <c r="I7" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="J7" s="1" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1277,7 +1274,7 @@
   <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C9" activeCellId="0" sqref="C9"/>
+      <selection pane="topLeft" activeCell="D14" activeCellId="0" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1290,11 +1287,11 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="3" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B1" s="10"/>
       <c r="C1" s="1" t="s">
-        <v>40</v>
+        <v>26</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1316,29 +1313,29 @@
     </row>
     <row r="4" s="3" customFormat="true" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>44</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="B5" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="B5" s="10" t="s">
-        <v>65</v>
-      </c>
       <c r="C5" s="10" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>66</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>67</v>
       </c>
       <c r="C6" s="12"/>
     </row>
@@ -1347,10 +1344,10 @@
         <v>13</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1426,7 +1423,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="13" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B1" s="13"/>
       <c r="C1" s="13"/>
@@ -1434,10 +1431,10 @@
     </row>
     <row r="2" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="B2" s="10" t="s">
         <v>69</v>
-      </c>
-      <c r="B2" s="10" t="s">
-        <v>70</v>
       </c>
       <c r="C2" s="14"/>
       <c r="D2" s="14"/>
@@ -1445,113 +1442,113 @@
     <row r="3" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="10"/>
       <c r="B3" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="C3" s="15" t="s">
         <v>71</v>
       </c>
-      <c r="C3" s="15" t="s">
+      <c r="D3" s="15" t="s">
         <v>72</v>
-      </c>
-      <c r="D3" s="15" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B4" s="1" t="n">
         <v>1</v>
       </c>
       <c r="C4" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>75</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B5" s="1" t="n">
         <v>2</v>
       </c>
       <c r="C5" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>78</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C6" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>80</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C7" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D7" s="1" t="s">
         <v>82</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B8" s="1" t="n">
         <v>3</v>
       </c>
       <c r="C8" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D8" s="1" t="s">
         <v>85</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B9" s="1" t="n">
         <v>4</v>
       </c>
       <c r="C9" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="D9" s="1" t="s">
         <v>88</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B10" s="1" t="n">
         <v>5</v>
       </c>
       <c r="C10" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="D10" s="1" t="s">
         <v>91</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B11" s="1" t="n">
         <v>6</v>
       </c>
       <c r="C11" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="D11" s="1" t="s">
         <v>94</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>95</v>
       </c>
     </row>
   </sheetData>
@@ -1591,31 +1588,31 @@
         <v>15</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>97</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>99</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>101</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>102</v>
       </c>
     </row>
   </sheetData>
@@ -1650,68 +1647,68 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>103</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>107</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C3" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>109</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="C4" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="D4" s="1" t="s">
         <v>113</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C5" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>115</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="C6" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="D6" s="1" t="s">
         <v>119</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1719,7 +1716,7 @@
         <v>8</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
   </sheetData>
